--- a/webScrapping/espn_scrapper/IPL/Kolkata Knight Riders/Dinesh Karthik (c)†.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Kolkata Knight Riders/Dinesh Karthik (c)†.xlsx
@@ -474,72 +474,72 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Sep 30 2020</v>
+        <v xml:space="preserve"> Oct 10 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C3" t="str">
-        <v>KKR won by 37 runs</v>
+        <v>KKR won by 2 runs</v>
       </c>
       <c r="D3" t="str">
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="E3" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Kings XI Punjab</v>
       </c>
       <c r="F3" t="str">
         <v>Dinesh Karthik (c)†</v>
       </c>
       <c r="G3" t="str">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="H3" t="str">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I3" t="str">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" t="str">
-        <v>33.33</v>
+        <v>200.00</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Oct 10 2020</v>
+        <v xml:space="preserve"> Sep 30 2020</v>
       </c>
       <c r="B4" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C4" t="str">
-        <v>KKR won by 2 runs</v>
+        <v>KKR won by 37 runs</v>
       </c>
       <c r="D4" t="str">
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="E4" t="str">
-        <v>Kings XI Punjab</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="F4" t="str">
         <v>Dinesh Karthik (c)†</v>
       </c>
       <c r="G4" t="str">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="H4" t="str">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="I4" t="str">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J4" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="str">
-        <v>200.00</v>
+        <v>33.33</v>
       </c>
     </row>
   </sheetData>
